--- a/Tables/Word_similarity_summary.xlsx
+++ b/Tables/Word_similarity_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Network</t>
   </si>
@@ -65,25 +65,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>combined</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>MEN</t>
-  </si>
-  <si>
-    <t>SimVerb</t>
-  </si>
-  <si>
-    <t>SimLex</t>
+    <t>Creativity</t>
   </si>
 </sst>
 </file>
@@ -190,158 +178,52 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>1719.0</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>751.0</v>
+        <v>4961.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3000.0</v>
+        <v>12310.0</v>
       </c>
       <c r="H2" t="n">
-        <v>609.0</v>
+        <v>2695.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.203</v>
+        <v>0.218927701056052</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6034363542457962</v>
+        <v>0.011482382049531852</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5927201833939187</v>
+        <v>0.003981062647860172</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4209418206674926</v>
+        <v>0.002784639673293775</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5446460509201393</v>
+        <v>0.0038713989241702797</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5470570277692028</v>
+        <v>-0.0027120584546502587</v>
       </c>
       <c r="O2" t="n">
-        <v>0.38230837510003735</v>
+        <v>-0.0014464373954987007</v>
       </c>
       <c r="P2" t="n">
-        <v>1.1206304287912882E-61</v>
+        <v>0.551287147832176</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.873434238608219E-59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1719.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="n">
-        <v>827.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3500.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>779.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.22257142857142856</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5591930032416278</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5555123985391268</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.38942838738059904</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.46189732223718977</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.47781833689896286</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.33027782839139613</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.753897178544315E-65</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7988277521876418E-64</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1719.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1028.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>999.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>253.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.25325325325325326</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.47848861964568434</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.47625221203070606</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.34022826120373884</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.4250392876967948</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.4250938666752242</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.295782329815889</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.997778804819682E-16</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9.94609036533552E-16</v>
+        <v>0.8363414774973514</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Word_similarity_summary.xlsx
+++ b/Tables/Word_similarity_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Network</t>
   </si>
@@ -65,13 +65,25 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>combined</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>Creativity</t>
+    <t>MEN</t>
+  </si>
+  <si>
+    <t>SimVerb</t>
+  </si>
+  <si>
+    <t>SimLex</t>
   </si>
 </sst>
 </file>
@@ -178,52 +190,158 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>1719.0</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>751.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>609.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6034363542457962</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5927201833939187</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4209418206674926</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5446460509201393</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5470570277692028</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.38230837510003735</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.1206304287912882E-61</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.873434238608219E-59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="n">
-        <v>4961.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12310.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2695.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.218927701056052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.011482382049531852</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.003981062647860172</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.002784639673293775</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0038713989241702797</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-0.0027120584546502587</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.0014464373954987007</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.551287147832176</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.8363414774973514</v>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>827.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>779.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.22257142857142856</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5591930032416278</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5555123985391268</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.38942838738059904</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.46189732223718977</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.47781833689896286</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.33027782839139613</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.753897178544315E-65</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7988277521876418E-64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1028.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.25325325325325326</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.47848861964568434</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.47625221203070606</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.34022826120373884</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4250392876967948</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4250938666752242</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.295782329815889</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.997778804819682E-16</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9.94609036533552E-16</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Word_similarity_summary.xlsx
+++ b/Tables/Word_similarity_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Network</t>
   </si>
@@ -65,25 +65,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>combined</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>MEN</t>
-  </si>
-  <si>
     <t>SimVerb</t>
-  </si>
-  <si>
-    <t>SimLex</t>
   </si>
 </sst>
 </file>
@@ -190,158 +178,52 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>1719.0</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>751.0</v>
+        <v>804.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="H2" t="n">
-        <v>609.0</v>
+        <v>776.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.203</v>
+        <v>0.22171428571428572</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6034363542457962</v>
+        <v>0.5672598070599776</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5927201833939187</v>
+        <v>0.5740202442216287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4209418206674926</v>
+        <v>0.4065085313794489</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5446460509201393</v>
+        <v>0.46814889649944863</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5470570277692028</v>
+        <v>0.5023104842411648</v>
       </c>
       <c r="O2" t="n">
-        <v>0.38230837510003735</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.1206304287912882E-61</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4.873434238608219E-59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1719.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="n">
-        <v>827.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3500.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>779.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.22257142857142856</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5591930032416278</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5555123985391268</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.38942838738059904</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.46189732223718977</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.47781833689896286</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.33027782839139613</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.753897178544315E-65</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7988277521876418E-64</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1719.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1028.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>999.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>253.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.25325325325325326</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.47848861964568434</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.47625221203070606</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.34022826120373884</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.4250392876967948</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.4250938666752242</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.295782329815889</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.997778804819682E-16</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9.94609036533552E-16</v>
+        <v>0.34863515598738704</v>
+      </c>
+      <c r="P2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
